--- a/08 Project Management/Tidsregistrering/PM11 Tidsregistrering for Rasmus.xlsx
+++ b/08 Project Management/Tidsregistrering/PM11 Tidsregistrering for Rasmus.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rasmus J\Documents\GitHub\HoeKulator\08 Project Management\Tidsregistrering\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rasmus J\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E360B9C-9212-4627-B0F2-C2E8FFD72BBF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E2A8A2D-14EC-4793-AC3F-806D8404F899}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23258" windowHeight="12578" xr2:uid="{84363544-26A8-43A0-AC4F-33AAA0FF1AA4}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="50">
   <si>
     <t>Tidsregistrering af (Navn)</t>
   </si>
@@ -181,6 +181,9 @@
   </si>
   <si>
     <t>30 minutter</t>
+  </si>
+  <si>
+    <t>Viderearbejde med mockup</t>
   </si>
 </sst>
 </file>
@@ -758,8 +761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A07EC185-8A27-41F3-967D-179793E73F80}">
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="91" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -924,17 +927,31 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="19.5" x14ac:dyDescent="0.6">
-      <c r="C7" s="13"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="19"/>
+      <c r="A7" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="13">
+        <v>43886</v>
+      </c>
+      <c r="D7" s="14">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="E7" s="14">
+        <v>0.4375</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>46</v>
+      </c>
       <c r="G7" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7.6388888888888895E-2</v>
       </c>
       <c r="H7" s="1">
         <f>SUM(G$3:G7)</f>
-        <v>0.22222222222222227</v>
+        <v>0.29861111111111116</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="19.5" x14ac:dyDescent="0.6">
@@ -948,7 +965,7 @@
       </c>
       <c r="H8" s="1">
         <f>SUM(G$3:G8)</f>
-        <v>0.22222222222222227</v>
+        <v>0.29861111111111116</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="19.5" x14ac:dyDescent="0.6">
@@ -962,7 +979,7 @@
       </c>
       <c r="H9" s="1">
         <f>SUM(G$3:G9)</f>
-        <v>0.22222222222222227</v>
+        <v>0.29861111111111116</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="19.5" x14ac:dyDescent="0.6">
@@ -976,7 +993,7 @@
       </c>
       <c r="H10" s="1">
         <f>SUM(G$3:G10)</f>
-        <v>0.22222222222222227</v>
+        <v>0.29861111111111116</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="19.5" x14ac:dyDescent="0.6">
@@ -990,7 +1007,7 @@
       </c>
       <c r="H11" s="1">
         <f>SUM(G$3:G11)</f>
-        <v>0.22222222222222227</v>
+        <v>0.29861111111111116</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="19.5" x14ac:dyDescent="0.6">
@@ -1004,7 +1021,7 @@
       </c>
       <c r="H12" s="1">
         <f>SUM(G$3:G12)</f>
-        <v>0.22222222222222227</v>
+        <v>0.29861111111111116</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="19.5" x14ac:dyDescent="0.6">
@@ -1018,7 +1035,7 @@
       </c>
       <c r="H13" s="1">
         <f>SUM(G$3:G13)</f>
-        <v>0.22222222222222227</v>
+        <v>0.29861111111111116</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="19.5" x14ac:dyDescent="0.6">
@@ -1030,7 +1047,7 @@
       </c>
       <c r="H14" s="1">
         <f>SUM(G$3:G14)</f>
-        <v>0.22222222222222227</v>
+        <v>0.29861111111111116</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="19.5" x14ac:dyDescent="0.6">
@@ -1042,7 +1059,7 @@
       </c>
       <c r="H15" s="1">
         <f>SUM(G$3:G15)</f>
-        <v>0.22222222222222227</v>
+        <v>0.29861111111111116</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="19.5" x14ac:dyDescent="0.6">
@@ -1054,7 +1071,7 @@
       </c>
       <c r="H16" s="1">
         <f>SUM(G$3:G16)</f>
-        <v>0.22222222222222227</v>
+        <v>0.29861111111111116</v>
       </c>
     </row>
     <row r="17" spans="3:8" ht="19.5" x14ac:dyDescent="0.6">
@@ -1066,7 +1083,7 @@
       </c>
       <c r="H17" s="1">
         <f>SUM(G$3:G17)</f>
-        <v>0.22222222222222227</v>
+        <v>0.29861111111111116</v>
       </c>
     </row>
     <row r="18" spans="3:8" ht="19.5" x14ac:dyDescent="0.6">
@@ -1078,7 +1095,7 @@
       </c>
       <c r="H18" s="1">
         <f>SUM(G$3:G18)</f>
-        <v>0.22222222222222227</v>
+        <v>0.29861111111111116</v>
       </c>
     </row>
     <row r="19" spans="3:8" ht="19.5" x14ac:dyDescent="0.6">
@@ -1090,7 +1107,7 @@
       </c>
       <c r="H19" s="1">
         <f>SUM(G$3:G19)</f>
-        <v>0.22222222222222227</v>
+        <v>0.29861111111111116</v>
       </c>
     </row>
     <row r="20" spans="3:8" ht="19.5" x14ac:dyDescent="0.6">
@@ -1102,7 +1119,7 @@
       </c>
       <c r="H20" s="1">
         <f>SUM(G$3:G20)</f>
-        <v>0.22222222222222227</v>
+        <v>0.29861111111111116</v>
       </c>
     </row>
     <row r="21" spans="3:8" ht="19.5" x14ac:dyDescent="0.6">
@@ -1114,7 +1131,7 @@
       </c>
       <c r="H21" s="1">
         <f>SUM(G$3:G21)</f>
-        <v>0.22222222222222227</v>
+        <v>0.29861111111111116</v>
       </c>
     </row>
     <row r="22" spans="3:8" ht="19.5" x14ac:dyDescent="0.6">
@@ -1126,7 +1143,7 @@
       </c>
       <c r="H22" s="1">
         <f>SUM(G$3:G22)</f>
-        <v>0.22222222222222227</v>
+        <v>0.29861111111111116</v>
       </c>
     </row>
     <row r="23" spans="3:8" ht="19.5" x14ac:dyDescent="0.6">
@@ -1138,7 +1155,7 @@
       </c>
       <c r="H23" s="1">
         <f>SUM(G$3:G23)</f>
-        <v>0.22222222222222227</v>
+        <v>0.29861111111111116</v>
       </c>
     </row>
     <row r="24" spans="3:8" ht="19.5" x14ac:dyDescent="0.6">
@@ -1150,7 +1167,7 @@
       </c>
       <c r="H24" s="1">
         <f>SUM(G$3:G24)</f>
-        <v>0.22222222222222227</v>
+        <v>0.29861111111111116</v>
       </c>
     </row>
     <row r="25" spans="3:8" ht="19.5" x14ac:dyDescent="0.6">
@@ -1161,7 +1178,7 @@
       </c>
       <c r="H25" s="1">
         <f>SUM(G$3:G25)</f>
-        <v>0.22222222222222227</v>
+        <v>0.29861111111111116</v>
       </c>
     </row>
     <row r="26" spans="3:8" ht="19.5" x14ac:dyDescent="0.6">
@@ -1172,7 +1189,7 @@
       </c>
       <c r="H26" s="1">
         <f>SUM(G$3:G26)</f>
-        <v>0.22222222222222227</v>
+        <v>0.29861111111111116</v>
       </c>
     </row>
     <row r="27" spans="3:8" ht="19.5" x14ac:dyDescent="0.6">
@@ -1183,7 +1200,7 @@
       </c>
       <c r="H27" s="1">
         <f>SUM(G$3:G27)</f>
-        <v>0.22222222222222227</v>
+        <v>0.29861111111111116</v>
       </c>
     </row>
     <row r="28" spans="3:8" ht="19.5" x14ac:dyDescent="0.6">
@@ -1194,7 +1211,7 @@
       </c>
       <c r="H28" s="1">
         <f>SUM(G$3:G28)</f>
-        <v>0.22222222222222227</v>
+        <v>0.29861111111111116</v>
       </c>
     </row>
     <row r="29" spans="3:8" ht="19.5" x14ac:dyDescent="0.6">
@@ -1205,7 +1222,7 @@
       </c>
       <c r="H29" s="1">
         <f>SUM(G$3:G29)</f>
-        <v>0.22222222222222227</v>
+        <v>0.29861111111111116</v>
       </c>
     </row>
     <row r="30" spans="3:8" ht="19.5" x14ac:dyDescent="0.6">
@@ -1216,7 +1233,7 @@
       </c>
       <c r="H30" s="1">
         <f>SUM(G$3:G30)</f>
-        <v>0.22222222222222227</v>
+        <v>0.29861111111111116</v>
       </c>
     </row>
     <row r="31" spans="3:8" ht="19.5" x14ac:dyDescent="0.6">
@@ -1227,7 +1244,7 @@
       </c>
       <c r="H31" s="1">
         <f>SUM(G$3:G31)</f>
-        <v>0.22222222222222227</v>
+        <v>0.29861111111111116</v>
       </c>
     </row>
     <row r="32" spans="3:8" ht="19.5" x14ac:dyDescent="0.6">
@@ -1238,7 +1255,7 @@
       </c>
       <c r="H32" s="1">
         <f>SUM(G$3:G32)</f>
-        <v>0.22222222222222227</v>
+        <v>0.29861111111111116</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.45">

--- a/08 Project Management/Tidsregistrering/PM11 Tidsregistrering for Rasmus.xlsx
+++ b/08 Project Management/Tidsregistrering/PM11 Tidsregistrering for Rasmus.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rasmus J\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E2A8A2D-14EC-4793-AC3F-806D8404F899}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73929923-4290-43E2-A5F4-2EF189F4064F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23258" windowHeight="12578" xr2:uid="{84363544-26A8-43A0-AC4F-33AAA0FF1AA4}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="13096" xr2:uid="{84363544-26A8-43A0-AC4F-33AAA0FF1AA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="Roller">'Ark2'!$B$3:$B$31</definedName>
   </definedNames>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,6 +27,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="72">
   <si>
     <t>Tidsregistrering af (Navn)</t>
   </si>
@@ -168,9 +171,6 @@
     <t>Ændrede use case 1 da vi havde problemer med vores mockup</t>
   </si>
   <si>
-    <t>Begyndte på mockup med Emil N.</t>
-  </si>
-  <si>
     <t>Graphic artist</t>
   </si>
   <si>
@@ -183,7 +183,76 @@
     <t>30 minutter</t>
   </si>
   <si>
-    <t>Viderearbejde med mockup</t>
+    <t>Viderearbejde med mockup til android app</t>
+  </si>
+  <si>
+    <t>Begyndte på mockup med Emil N. til android app</t>
+  </si>
+  <si>
+    <t>Start på mockup til desktop</t>
+  </si>
+  <si>
+    <t>1 timer</t>
+  </si>
+  <si>
+    <t>Lavet OC0101 med Emil</t>
+  </si>
+  <si>
+    <t>Review af OC0103</t>
+  </si>
+  <si>
+    <t>Ret OC0101 med emil</t>
+  </si>
+  <si>
+    <t>blev klogere på løsningen af mine næste opgaver</t>
+  </si>
+  <si>
+    <t>1,5 time</t>
+  </si>
+  <si>
+    <t>Snakked med høk for at lave AD02, DD02 og Mockup</t>
+  </si>
+  <si>
+    <t>Brugertest på høk</t>
+  </si>
+  <si>
+    <t>1time</t>
+  </si>
+  <si>
+    <t>Produceret AD02 og DD02</t>
+  </si>
+  <si>
+    <t>Start på review af UC06</t>
+  </si>
+  <si>
+    <t>Rettelse af Mockup til desktop</t>
+  </si>
+  <si>
+    <t>Vi skulle lave design alle sammen</t>
+  </si>
+  <si>
+    <t>4 timer</t>
+  </si>
+  <si>
+    <t>Review af UC04</t>
+  </si>
+  <si>
+    <t>Rettelse af SSD08</t>
+  </si>
+  <si>
+    <t>SD0101</t>
+  </si>
+  <si>
+    <t>SD og DCD 0103</t>
+  </si>
+  <si>
+    <t>Software architect</t>
+  </si>
+  <si>
+    <t>review af sd0804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">implementering af SD0103 </t>
   </si>
 </sst>
 </file>
@@ -334,7 +403,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -371,17 +440,20 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="20" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Beregning" xfId="1" builtinId="22"/>
@@ -761,8 +833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A07EC185-8A27-41F3-967D-179793E73F80}">
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="91" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -771,7 +843,7 @@
     <col min="3" max="3" width="31.46484375" style="16" customWidth="1"/>
     <col min="4" max="4" width="26.796875" style="15" customWidth="1"/>
     <col min="5" max="5" width="31" style="15" customWidth="1"/>
-    <col min="6" max="6" width="31" style="20" customWidth="1"/>
+    <col min="6" max="6" width="31" style="19" customWidth="1"/>
     <col min="7" max="7" width="37.19921875" style="6" customWidth="1"/>
     <col min="8" max="8" width="37.19921875" style="2" customWidth="1"/>
   </cols>
@@ -830,8 +902,8 @@
       <c r="E3" s="12">
         <v>0.43055555555555558</v>
       </c>
-      <c r="F3" s="18" t="s">
-        <v>48</v>
+      <c r="F3" s="20" t="s">
+        <v>47</v>
       </c>
       <c r="G3" s="5">
         <f>E3-D3</f>
@@ -858,8 +930,8 @@
       <c r="E4" s="14">
         <v>0.47916666666666669</v>
       </c>
-      <c r="F4" s="19" t="s">
-        <v>48</v>
+      <c r="F4" s="18" t="s">
+        <v>47</v>
       </c>
       <c r="G4" s="5">
         <f t="shared" ref="G4:G32" si="0">E4-D4</f>
@@ -886,8 +958,8 @@
       <c r="E5" s="14">
         <v>0.54166666666666663</v>
       </c>
-      <c r="F5" s="19" t="s">
-        <v>47</v>
+      <c r="F5" s="18" t="s">
+        <v>46</v>
       </c>
       <c r="G5" s="5">
         <f t="shared" si="0"/>
@@ -900,10 +972,10 @@
     </row>
     <row r="6" spans="1:8" ht="19.5" x14ac:dyDescent="0.6">
       <c r="A6" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="11" t="s">
         <v>44</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>45</v>
       </c>
       <c r="C6" s="13">
         <v>43885</v>
@@ -914,8 +986,8 @@
       <c r="E6" s="14">
         <v>0.66666666666666663</v>
       </c>
-      <c r="F6" s="19" t="s">
-        <v>46</v>
+      <c r="F6" s="18" t="s">
+        <v>45</v>
       </c>
       <c r="G6" s="5">
         <f t="shared" si="0"/>
@@ -928,10 +1000,10 @@
     </row>
     <row r="7" spans="1:8" ht="19.5" x14ac:dyDescent="0.6">
       <c r="A7" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C7" s="13">
         <v>43886</v>
@@ -940,248 +1012,525 @@
         <v>0.3611111111111111</v>
       </c>
       <c r="E7" s="14">
-        <v>0.4375</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>46</v>
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>45</v>
       </c>
       <c r="G7" s="5">
         <f t="shared" si="0"/>
-        <v>7.6388888888888895E-2</v>
+        <v>9.722222222222221E-2</v>
       </c>
       <c r="H7" s="1">
         <f>SUM(G$3:G7)</f>
-        <v>0.29861111111111116</v>
+        <v>0.31944444444444448</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="19.5" x14ac:dyDescent="0.6">
-      <c r="C8" s="13"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="19"/>
+      <c r="A8" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="13">
+        <v>43886</v>
+      </c>
+      <c r="D8" s="14">
+        <v>0.51388888888888895</v>
+      </c>
+      <c r="E8" s="14">
+        <v>0.5625</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>51</v>
+      </c>
       <c r="G8" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.8611111111111049E-2</v>
       </c>
       <c r="H8" s="1">
         <f>SUM(G$3:G8)</f>
-        <v>0.29861111111111116</v>
+        <v>0.36805555555555552</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="19.5" x14ac:dyDescent="0.6">
-      <c r="C9" s="13"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="19"/>
+      <c r="A9" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="13">
+        <v>43886</v>
+      </c>
+      <c r="D9" s="14">
+        <v>0.56944444444444442</v>
+      </c>
+      <c r="E9" s="14">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>51</v>
+      </c>
       <c r="G9" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.777777777777779E-2</v>
       </c>
       <c r="H9" s="1">
         <f>SUM(G$3:G9)</f>
-        <v>0.29861111111111116</v>
+        <v>0.39583333333333331</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="19.5" x14ac:dyDescent="0.6">
-      <c r="C10" s="13"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="19"/>
+      <c r="A10" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="13">
+        <v>43886</v>
+      </c>
+      <c r="D10" s="14">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="E10" s="14">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>46</v>
+      </c>
       <c r="G10" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.9444444444444198E-3</v>
       </c>
       <c r="H10" s="1">
         <f>SUM(G$3:G10)</f>
-        <v>0.29861111111111116</v>
+        <v>0.40277777777777773</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="19.5" x14ac:dyDescent="0.6">
-      <c r="C11" s="13"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="19"/>
+      <c r="A11" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="13">
+        <v>43886</v>
+      </c>
+      <c r="D11" s="14">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="E11" s="14">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>47</v>
+      </c>
       <c r="G11" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.0833333333333259E-2</v>
       </c>
       <c r="H11" s="1">
         <f>SUM(G$3:G11)</f>
-        <v>0.29861111111111116</v>
+        <v>0.42361111111111099</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="19.5" x14ac:dyDescent="0.6">
-      <c r="C12" s="13"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="19"/>
+      <c r="A12" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="13">
+        <v>43887</v>
+      </c>
+      <c r="D12" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="E12" s="14">
+        <v>0.4375</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>51</v>
+      </c>
       <c r="G12" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
       <c r="H12" s="1">
         <f>SUM(G$3:G12)</f>
-        <v>0.29861111111111116</v>
+        <v>0.48611111111111099</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="19.5" x14ac:dyDescent="0.6">
-      <c r="C13" s="13"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="19"/>
+      <c r="A13" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="13">
+        <v>43887</v>
+      </c>
+      <c r="D13" s="14">
+        <v>0.4375</v>
+      </c>
+      <c r="E13" s="14">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>56</v>
+      </c>
       <c r="G13" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5.555555555555558E-2</v>
       </c>
       <c r="H13" s="1">
         <f>SUM(G$3:G13)</f>
-        <v>0.29861111111111116</v>
+        <v>0.54166666666666652</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="19.5" x14ac:dyDescent="0.6">
-      <c r="C14" s="13"/>
-      <c r="F14" s="19"/>
+      <c r="A14" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="13">
+        <v>43887</v>
+      </c>
+      <c r="D14" s="15">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E14" s="15">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>59</v>
+      </c>
       <c r="G14" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.472222222222221E-2</v>
       </c>
       <c r="H14" s="1">
         <f>SUM(G$3:G14)</f>
-        <v>0.29861111111111116</v>
+        <v>0.57638888888888873</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="19.5" x14ac:dyDescent="0.6">
-      <c r="C15" s="13"/>
-      <c r="F15" s="19"/>
+      <c r="A15" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="13">
+        <v>43887</v>
+      </c>
+      <c r="D15" s="15">
+        <v>0.5625</v>
+      </c>
+      <c r="E15" s="15">
+        <v>0.60763888888888895</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>51</v>
+      </c>
       <c r="G15" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.5138888888888951E-2</v>
       </c>
       <c r="H15" s="1">
         <f>SUM(G$3:G15)</f>
-        <v>0.29861111111111116</v>
+        <v>0.62152777777777768</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="19.5" x14ac:dyDescent="0.6">
-      <c r="C16" s="13"/>
-      <c r="F16" s="19"/>
+      <c r="A16" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="13">
+        <v>43888</v>
+      </c>
+      <c r="D16" s="15">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="E16" s="15">
+        <v>0.375</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>46</v>
+      </c>
       <c r="G16" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.0833333333333315E-2</v>
       </c>
       <c r="H16" s="1">
         <f>SUM(G$3:G16)</f>
-        <v>0.29861111111111116</v>
-      </c>
-    </row>
-    <row r="17" spans="3:8" ht="19.5" x14ac:dyDescent="0.6">
-      <c r="C17" s="13"/>
-      <c r="F17" s="19"/>
+        <v>0.64236111111111094</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="19.5" x14ac:dyDescent="0.6">
+      <c r="A17" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="13">
+        <v>43888</v>
+      </c>
+      <c r="D17" s="15">
+        <v>0.375</v>
+      </c>
+      <c r="E17" s="15">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>51</v>
+      </c>
       <c r="G17" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9.7222222222222265E-2</v>
       </c>
       <c r="H17" s="1">
         <f>SUM(G$3:G17)</f>
-        <v>0.29861111111111116</v>
-      </c>
-    </row>
-    <row r="18" spans="3:8" ht="19.5" x14ac:dyDescent="0.6">
-      <c r="C18" s="13"/>
-      <c r="F18" s="19"/>
+        <v>0.73958333333333326</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="19.5" x14ac:dyDescent="0.6">
+      <c r="A18" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="13">
+        <v>43888</v>
+      </c>
+      <c r="D18" s="15">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E18" s="15">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>64</v>
+      </c>
       <c r="G18" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.14583333333333326</v>
       </c>
       <c r="H18" s="1">
         <f>SUM(G$3:G18)</f>
-        <v>0.29861111111111116</v>
-      </c>
-    </row>
-    <row r="19" spans="3:8" ht="19.5" x14ac:dyDescent="0.6">
-      <c r="C19" s="13"/>
-      <c r="F19" s="19"/>
+        <v>0.88541666666666652</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="19.5" x14ac:dyDescent="0.6">
+      <c r="A19" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="13">
+        <v>43889</v>
+      </c>
+      <c r="D19" s="15">
+        <v>0.375</v>
+      </c>
+      <c r="E19" s="15">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>47</v>
+      </c>
       <c r="G19" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.0833333333333315E-2</v>
       </c>
       <c r="H19" s="1">
         <f>SUM(G$3:G19)</f>
-        <v>0.29861111111111116</v>
-      </c>
-    </row>
-    <row r="20" spans="3:8" ht="19.5" x14ac:dyDescent="0.6">
-      <c r="C20" s="13"/>
-      <c r="F20" s="19"/>
+        <v>0.90624999999999978</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="19.5" x14ac:dyDescent="0.6">
+      <c r="A20" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="13">
+        <v>43889</v>
+      </c>
+      <c r="D20" s="15">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E20" s="15">
+        <v>0.50694444444444442</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>51</v>
+      </c>
       <c r="G20" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="H20" s="1">
         <f>SUM(G$3:G20)</f>
-        <v>0.29861111111111116</v>
-      </c>
-    </row>
-    <row r="21" spans="3:8" ht="19.5" x14ac:dyDescent="0.6">
-      <c r="C21" s="13"/>
-      <c r="F21" s="19"/>
+        <v>1.0173611111111109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="19.5" x14ac:dyDescent="0.6">
+      <c r="A21" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="13">
+        <v>43889</v>
+      </c>
+      <c r="D21" s="15">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E21" s="15">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>51</v>
+      </c>
       <c r="G21" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.1666666666666741E-2</v>
       </c>
       <c r="H21" s="1">
         <f>SUM(G$3:G21)</f>
-        <v>0.29861111111111116</v>
-      </c>
-    </row>
-    <row r="22" spans="3:8" ht="19.5" x14ac:dyDescent="0.6">
-      <c r="C22" s="13"/>
-      <c r="F22" s="19"/>
+        <v>1.0590277777777777</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="19.5" x14ac:dyDescent="0.6">
+      <c r="A22" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="13">
+        <v>43892</v>
+      </c>
+      <c r="D22" s="15">
+        <v>0.375</v>
+      </c>
+      <c r="E22" s="15">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>45</v>
+      </c>
       <c r="G22" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.10416666666666669</v>
       </c>
       <c r="H22" s="1">
         <f>SUM(G$3:G22)</f>
-        <v>0.29861111111111116</v>
-      </c>
-    </row>
-    <row r="23" spans="3:8" ht="19.5" x14ac:dyDescent="0.6">
-      <c r="C23" s="13"/>
-      <c r="F23" s="19"/>
+        <v>1.1631944444444444</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="19.5" x14ac:dyDescent="0.6">
+      <c r="A23" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="13">
+        <v>43892</v>
+      </c>
+      <c r="D23" s="15">
+        <v>0.4826388888888889</v>
+      </c>
+      <c r="E23" s="15">
+        <v>0.49652777777777773</v>
+      </c>
+      <c r="F23" s="18" t="s">
+        <v>46</v>
+      </c>
       <c r="G23" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.388888888888884E-2</v>
       </c>
       <c r="H23" s="1">
         <f>SUM(G$3:G23)</f>
-        <v>0.29861111111111116</v>
-      </c>
-    </row>
-    <row r="24" spans="3:8" ht="19.5" x14ac:dyDescent="0.6">
-      <c r="C24" s="13"/>
-      <c r="F24" s="19"/>
+        <v>1.1770833333333333</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="19.5" x14ac:dyDescent="0.6">
+      <c r="A24" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="13">
+        <v>43892</v>
+      </c>
+      <c r="D24" s="15">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E24" s="15">
+        <v>0.53472222222222221</v>
+      </c>
+      <c r="F24" s="18">
+        <v>10</v>
+      </c>
       <c r="G24" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.388888888888884E-2</v>
       </c>
       <c r="H24" s="1">
         <f>SUM(G$3:G24)</f>
-        <v>0.29861111111111116</v>
-      </c>
-    </row>
-    <row r="25" spans="3:8" ht="19.5" x14ac:dyDescent="0.6">
-      <c r="C25" s="13"/>
+        <v>1.1909722222222221</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="19.5" x14ac:dyDescent="0.6">
+      <c r="A25" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="13">
+        <v>43892</v>
+      </c>
+      <c r="D25" s="15">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E25" s="15">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>51</v>
+      </c>
       <c r="G25" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.1666666666666741E-2</v>
       </c>
       <c r="H25" s="1">
         <f>SUM(G$3:G25)</f>
-        <v>0.29861111111111116</v>
-      </c>
-    </row>
-    <row r="26" spans="3:8" ht="19.5" x14ac:dyDescent="0.6">
+        <v>1.2326388888888888</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="19.5" x14ac:dyDescent="0.6">
       <c r="C26" s="13"/>
       <c r="G26" s="5">
         <f t="shared" si="0"/>
@@ -1189,10 +1538,10 @@
       </c>
       <c r="H26" s="1">
         <f>SUM(G$3:G26)</f>
-        <v>0.29861111111111116</v>
-      </c>
-    </row>
-    <row r="27" spans="3:8" ht="19.5" x14ac:dyDescent="0.6">
+        <v>1.2326388888888888</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="19.5" x14ac:dyDescent="0.6">
       <c r="C27" s="13"/>
       <c r="G27" s="5">
         <f t="shared" si="0"/>
@@ -1200,10 +1549,10 @@
       </c>
       <c r="H27" s="1">
         <f>SUM(G$3:G27)</f>
-        <v>0.29861111111111116</v>
-      </c>
-    </row>
-    <row r="28" spans="3:8" ht="19.5" x14ac:dyDescent="0.6">
+        <v>1.2326388888888888</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="19.5" x14ac:dyDescent="0.6">
       <c r="C28" s="13"/>
       <c r="G28" s="5">
         <f t="shared" si="0"/>
@@ -1211,10 +1560,10 @@
       </c>
       <c r="H28" s="1">
         <f>SUM(G$3:G28)</f>
-        <v>0.29861111111111116</v>
-      </c>
-    </row>
-    <row r="29" spans="3:8" ht="19.5" x14ac:dyDescent="0.6">
+        <v>1.2326388888888888</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="19.5" x14ac:dyDescent="0.6">
       <c r="C29" s="13"/>
       <c r="G29" s="5">
         <f t="shared" si="0"/>
@@ -1222,10 +1571,10 @@
       </c>
       <c r="H29" s="1">
         <f>SUM(G$3:G29)</f>
-        <v>0.29861111111111116</v>
-      </c>
-    </row>
-    <row r="30" spans="3:8" ht="19.5" x14ac:dyDescent="0.6">
+        <v>1.2326388888888888</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="19.5" x14ac:dyDescent="0.6">
       <c r="C30" s="13"/>
       <c r="G30" s="5">
         <f t="shared" si="0"/>
@@ -1233,10 +1582,10 @@
       </c>
       <c r="H30" s="1">
         <f>SUM(G$3:G30)</f>
-        <v>0.29861111111111116</v>
-      </c>
-    </row>
-    <row r="31" spans="3:8" ht="19.5" x14ac:dyDescent="0.6">
+        <v>1.2326388888888888</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="19.5" x14ac:dyDescent="0.6">
       <c r="C31" s="13"/>
       <c r="G31" s="5">
         <f t="shared" si="0"/>
@@ -1244,10 +1593,10 @@
       </c>
       <c r="H31" s="1">
         <f>SUM(G$3:G31)</f>
-        <v>0.29861111111111116</v>
-      </c>
-    </row>
-    <row r="32" spans="3:8" ht="19.5" x14ac:dyDescent="0.6">
+        <v>1.2326388888888888</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="19.5" x14ac:dyDescent="0.6">
       <c r="C32" s="13"/>
       <c r="G32" s="5">
         <f t="shared" si="0"/>
@@ -1255,7 +1604,7 @@
       </c>
       <c r="H32" s="1">
         <f>SUM(G$3:G32)</f>
-        <v>0.29861111111111116</v>
+        <v>1.2326388888888888</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.45">

--- a/08 Project Management/Tidsregistrering/PM11 Tidsregistrering for Rasmus.xlsx
+++ b/08 Project Management/Tidsregistrering/PM11 Tidsregistrering for Rasmus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rasmus J\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73929923-4290-43E2-A5F4-2EF189F4064F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4033B319-F0BD-4776-AF40-B45B02BC607D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="13096" xr2:uid="{84363544-26A8-43A0-AC4F-33AAA0FF1AA4}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="74">
   <si>
     <t>Tidsregistrering af (Navn)</t>
   </si>
@@ -253,6 +253,12 @@
   </si>
   <si>
     <t xml:space="preserve">implementering af SD0103 </t>
+  </si>
+  <si>
+    <t>implementering af SD0104 med Sune</t>
+  </si>
+  <si>
+    <t>Review af UC07</t>
   </si>
 </sst>
 </file>
@@ -833,8 +839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A07EC185-8A27-41F3-967D-179793E73F80}">
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="68" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1432,18 +1438,18 @@
         <v>0.375</v>
       </c>
       <c r="E22" s="15">
-        <v>0.47916666666666669</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="F22" s="18" t="s">
         <v>45</v>
       </c>
       <c r="G22" s="5">
         <f t="shared" si="0"/>
-        <v>0.10416666666666669</v>
+        <v>8.3333333333333315E-2</v>
       </c>
       <c r="H22" s="1">
         <f>SUM(G$3:G22)</f>
-        <v>1.1631944444444444</v>
+        <v>1.1423611111111109</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="19.5" x14ac:dyDescent="0.6">
@@ -1471,7 +1477,7 @@
       </c>
       <c r="H23" s="1">
         <f>SUM(G$3:G23)</f>
-        <v>1.1770833333333333</v>
+        <v>1.1562499999999998</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="19.5" x14ac:dyDescent="0.6">
@@ -1499,7 +1505,7 @@
       </c>
       <c r="H24" s="1">
         <f>SUM(G$3:G24)</f>
-        <v>1.1909722222222221</v>
+        <v>1.1701388888888886</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="19.5" x14ac:dyDescent="0.6">
@@ -1518,7 +1524,7 @@
       <c r="E25" s="15">
         <v>0.58333333333333337</v>
       </c>
-      <c r="F25" s="19" t="s">
+      <c r="F25" s="20" t="s">
         <v>51</v>
       </c>
       <c r="G25" s="5">
@@ -1527,29 +1533,63 @@
       </c>
       <c r="H25" s="1">
         <f>SUM(G$3:G25)</f>
-        <v>1.2326388888888888</v>
+        <v>1.2118055555555554</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="19.5" x14ac:dyDescent="0.6">
-      <c r="C26" s="13"/>
+      <c r="A26" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="13">
+        <v>43892</v>
+      </c>
+      <c r="D26" s="15">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E26" s="15">
+        <v>0.625</v>
+      </c>
+      <c r="F26" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="G26" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.166666666666663E-2</v>
       </c>
       <c r="H26" s="1">
         <f>SUM(G$3:G26)</f>
-        <v>1.2326388888888888</v>
+        <v>1.2534722222222219</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="19.5" x14ac:dyDescent="0.6">
-      <c r="C27" s="13"/>
+      <c r="A27" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="13">
+        <v>43893</v>
+      </c>
+      <c r="D27" s="15">
+        <v>0.375</v>
+      </c>
+      <c r="E27" s="15">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="F27" s="19" t="s">
+        <v>47</v>
+      </c>
       <c r="G27" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.0833333333333315E-2</v>
       </c>
       <c r="H27" s="1">
         <f>SUM(G$3:G27)</f>
-        <v>1.2326388888888888</v>
+        <v>1.2743055555555551</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="19.5" x14ac:dyDescent="0.6">
@@ -1560,7 +1600,7 @@
       </c>
       <c r="H28" s="1">
         <f>SUM(G$3:G28)</f>
-        <v>1.2326388888888888</v>
+        <v>1.2743055555555551</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="19.5" x14ac:dyDescent="0.6">
@@ -1571,7 +1611,7 @@
       </c>
       <c r="H29" s="1">
         <f>SUM(G$3:G29)</f>
-        <v>1.2326388888888888</v>
+        <v>1.2743055555555551</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="19.5" x14ac:dyDescent="0.6">
@@ -1582,7 +1622,7 @@
       </c>
       <c r="H30" s="1">
         <f>SUM(G$3:G30)</f>
-        <v>1.2326388888888888</v>
+        <v>1.2743055555555551</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="19.5" x14ac:dyDescent="0.6">
@@ -1593,7 +1633,7 @@
       </c>
       <c r="H31" s="1">
         <f>SUM(G$3:G31)</f>
-        <v>1.2326388888888888</v>
+        <v>1.2743055555555551</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="19.5" x14ac:dyDescent="0.6">
@@ -1604,7 +1644,7 @@
       </c>
       <c r="H32" s="1">
         <f>SUM(G$3:G32)</f>
-        <v>1.2326388888888888</v>
+        <v>1.2743055555555551</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.45">

--- a/08 Project Management/Tidsregistrering/PM11 Tidsregistrering for Rasmus.xlsx
+++ b/08 Project Management/Tidsregistrering/PM11 Tidsregistrering for Rasmus.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rasmus J\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rasmu\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4033B319-F0BD-4776-AF40-B45B02BC607D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70E59C62-C0F3-4514-B663-1B1E0AAB1D53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="13096" xr2:uid="{84363544-26A8-43A0-AC4F-33AAA0FF1AA4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{84363544-26A8-43A0-AC4F-33AAA0FF1AA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="84">
   <si>
     <t>Tidsregistrering af (Navn)</t>
   </si>
@@ -259,6 +259,36 @@
   </si>
   <si>
     <t>Review af UC07</t>
+  </si>
+  <si>
+    <t>SD0804 0g og OC0802</t>
+  </si>
+  <si>
+    <t>Fællessnak om chain of responsibility</t>
+  </si>
+  <si>
+    <t>SD0804 og DCD08</t>
+  </si>
+  <si>
+    <t>Kundemøde om DD12, AD12 og ATD12b</t>
+  </si>
+  <si>
+    <t>Lavede atd12 og kiggede på DD12 og AD12 med daniel</t>
+  </si>
+  <si>
+    <t>ret UCD01</t>
+  </si>
+  <si>
+    <t>review af Sunes guide til merge conflict</t>
+  </si>
+  <si>
+    <t>implementer 0802</t>
+  </si>
+  <si>
+    <t>3 timer</t>
+  </si>
+  <si>
+    <t>review af ATD04</t>
   </si>
 </sst>
 </file>
@@ -453,13 +483,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="20" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Beregning" xfId="1" builtinId="22"/>
@@ -837,36 +867,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A07EC185-8A27-41F3-967D-179793E73F80}">
-  <dimension ref="A1:H47"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="68" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="53.86328125" style="11" customWidth="1"/>
-    <col min="3" max="3" width="31.46484375" style="16" customWidth="1"/>
-    <col min="4" max="4" width="26.796875" style="15" customWidth="1"/>
+    <col min="1" max="2" width="53.85546875" style="11" customWidth="1"/>
+    <col min="3" max="3" width="31.42578125" style="16" customWidth="1"/>
+    <col min="4" max="4" width="26.85546875" style="15" customWidth="1"/>
     <col min="5" max="5" width="31" style="15" customWidth="1"/>
     <col min="6" max="6" width="31" style="19" customWidth="1"/>
-    <col min="7" max="7" width="37.19921875" style="6" customWidth="1"/>
-    <col min="8" max="8" width="37.19921875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="37.140625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="37.140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="25.15" x14ac:dyDescent="0.7">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-    </row>
-    <row r="2" spans="1:8" ht="19.5" x14ac:dyDescent="0.6">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+    </row>
+    <row r="2" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>37</v>
       </c>
@@ -892,7 +922,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="19.5" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>41</v>
       </c>
@@ -920,7 +950,7 @@
         <v>3.4722222222222265E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="19.5" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>42</v>
       </c>
@@ -940,7 +970,7 @@
         <v>47</v>
       </c>
       <c r="G4" s="5">
-        <f t="shared" ref="G4:G32" si="0">E4-D4</f>
+        <f t="shared" ref="G4:G49" si="0">E4-D4</f>
         <v>2.083333333333337E-2</v>
       </c>
       <c r="H4" s="1">
@@ -948,7 +978,7 @@
         <v>5.5555555555555636E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="19.5" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>43</v>
       </c>
@@ -976,7 +1006,7 @@
         <v>9.7222222222222265E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="19.5" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>49</v>
       </c>
@@ -1004,7 +1034,7 @@
         <v>0.22222222222222227</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="19.5" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>48</v>
       </c>
@@ -1032,7 +1062,7 @@
         <v>0.31944444444444448</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="19.5" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>50</v>
       </c>
@@ -1060,7 +1090,7 @@
         <v>0.36805555555555552</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="19.5" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>52</v>
       </c>
@@ -1088,7 +1118,7 @@
         <v>0.39583333333333331</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="19.5" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>54</v>
       </c>
@@ -1116,7 +1146,7 @@
         <v>0.40277777777777773</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="19.5" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>53</v>
       </c>
@@ -1144,7 +1174,7 @@
         <v>0.42361111111111099</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="19.5" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>55</v>
       </c>
@@ -1172,7 +1202,7 @@
         <v>0.48611111111111099</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="19.5" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>57</v>
       </c>
@@ -1200,7 +1230,7 @@
         <v>0.54166666666666652</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="19.5" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
         <v>58</v>
       </c>
@@ -1228,7 +1258,7 @@
         <v>0.57638888888888873</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="19.5" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
         <v>60</v>
       </c>
@@ -1256,7 +1286,7 @@
         <v>0.62152777777777768</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="19.5" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
         <v>61</v>
       </c>
@@ -1284,7 +1314,7 @@
         <v>0.64236111111111094</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="19.5" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
         <v>62</v>
       </c>
@@ -1312,7 +1342,7 @@
         <v>0.73958333333333326</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="19.5" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
         <v>63</v>
       </c>
@@ -1340,7 +1370,7 @@
         <v>0.88541666666666652</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="19.5" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
         <v>65</v>
       </c>
@@ -1368,7 +1398,7 @@
         <v>0.90624999999999978</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="19.5" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>66</v>
       </c>
@@ -1396,7 +1426,7 @@
         <v>1.0173611111111109</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="19.5" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
         <v>67</v>
       </c>
@@ -1424,7 +1454,7 @@
         <v>1.0590277777777777</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="19.5" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
         <v>68</v>
       </c>
@@ -1452,8 +1482,8 @@
         <v>1.1423611111111109</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="19.5" x14ac:dyDescent="0.6">
-      <c r="A23" s="23" t="s">
+    <row r="23" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A23" s="21" t="s">
         <v>70</v>
       </c>
       <c r="B23" s="11" t="s">
@@ -1480,7 +1510,7 @@
         <v>1.1562499999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="19.5" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
         <v>70</v>
       </c>
@@ -1508,7 +1538,7 @@
         <v>1.1701388888888886</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="19.5" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
         <v>71</v>
       </c>
@@ -1536,7 +1566,7 @@
         <v>1.2118055555555554</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="19.5" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
         <v>72</v>
       </c>
@@ -1564,7 +1594,7 @@
         <v>1.2534722222222219</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="19.5" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
         <v>73</v>
       </c>
@@ -1592,105 +1622,415 @@
         <v>1.2743055555555551</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="19.5" x14ac:dyDescent="0.6">
-      <c r="C28" s="13"/>
+    <row r="28" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A28" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" s="13">
+        <v>43893</v>
+      </c>
+      <c r="D28" s="15">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E28" s="15">
+        <v>0.625</v>
+      </c>
+      <c r="F28" s="19" t="s">
+        <v>45</v>
+      </c>
       <c r="G28" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.16666666666666669</v>
       </c>
       <c r="H28" s="1">
         <f>SUM(G$3:G28)</f>
-        <v>1.2743055555555551</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="19.5" x14ac:dyDescent="0.6">
-      <c r="C29" s="13"/>
+        <v>1.4409722222222219</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A29" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" s="13">
+        <v>43894</v>
+      </c>
+      <c r="D29" s="15">
+        <v>0.375</v>
+      </c>
+      <c r="E29" s="15">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F29" s="19" t="s">
+        <v>51</v>
+      </c>
       <c r="G29" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.1666666666666685E-2</v>
       </c>
       <c r="H29" s="1">
         <f>SUM(G$3:G29)</f>
-        <v>1.2743055555555551</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="19.5" x14ac:dyDescent="0.6">
-      <c r="C30" s="13"/>
+        <v>1.4826388888888886</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A30" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" s="13">
+        <v>43894</v>
+      </c>
+      <c r="D30" s="15">
+        <v>0.4375</v>
+      </c>
+      <c r="E30" s="15">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F30" s="19" t="s">
+        <v>51</v>
+      </c>
       <c r="G30" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.10416666666666663</v>
       </c>
       <c r="H30" s="1">
         <f>SUM(G$3:G30)</f>
-        <v>1.2743055555555551</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="19.5" x14ac:dyDescent="0.6">
-      <c r="C31" s="13"/>
+        <v>1.5868055555555554</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A31" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="13">
+        <v>43894</v>
+      </c>
+      <c r="D31" s="15">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E31" s="15">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F31" s="19" t="s">
+        <v>51</v>
+      </c>
       <c r="G31" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.3333333333333259E-2</v>
       </c>
       <c r="H31" s="1">
         <f>SUM(G$3:G31)</f>
-        <v>1.2743055555555551</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="19.5" x14ac:dyDescent="0.6">
-      <c r="C32" s="13"/>
+        <v>1.6701388888888886</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A32" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" s="13">
+        <v>43895</v>
+      </c>
+      <c r="D32" s="15">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="E32" s="15">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="F32" s="19" t="s">
+        <v>47</v>
+      </c>
       <c r="G32" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.166666666666663E-2</v>
       </c>
       <c r="H32" s="1">
         <f>SUM(G$3:G32)</f>
-        <v>1.2743055555555551</v>
-      </c>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C33" s="13"/>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C34" s="13"/>
-    </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C35" s="13"/>
-    </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C36" s="13"/>
-    </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C37" s="13"/>
-    </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.45">
+        <v>1.7118055555555554</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A33" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="13">
+        <v>43895</v>
+      </c>
+      <c r="D33" s="15">
+        <v>0.41319444444444442</v>
+      </c>
+      <c r="E33" s="15">
+        <v>0.4375</v>
+      </c>
+      <c r="F33" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="G33" s="5">
+        <f t="shared" si="0"/>
+        <v>2.430555555555558E-2</v>
+      </c>
+      <c r="H33" s="1">
+        <f>SUM(G$3:G33)</f>
+        <v>1.7361111111111109</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A34" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34" s="13">
+        <v>43895</v>
+      </c>
+      <c r="D34" s="15">
+        <v>0.4375</v>
+      </c>
+      <c r="E34" s="15">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="F34" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="G34" s="5">
+        <f t="shared" si="0"/>
+        <v>1.3888888888888895E-2</v>
+      </c>
+      <c r="H34" s="1">
+        <f>SUM(G$3:G34)</f>
+        <v>1.7499999999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A35" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" s="13">
+        <v>43895</v>
+      </c>
+      <c r="D35" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="E35" s="15">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F35" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="G35" s="5">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666663</v>
+      </c>
+      <c r="H35" s="1">
+        <f>SUM(G$3:G35)</f>
+        <v>1.9166666666666665</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A36" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" s="13">
+        <v>43896</v>
+      </c>
+      <c r="D36" s="15">
+        <v>0.375</v>
+      </c>
+      <c r="E36" s="15">
+        <v>0.5625</v>
+      </c>
+      <c r="F36" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="G36" s="5">
+        <f t="shared" si="0"/>
+        <v>0.1875</v>
+      </c>
+      <c r="H36" s="1">
+        <f>SUM(G$3:G36)</f>
+        <v>2.1041666666666665</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A37" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37" s="13">
+        <v>43896</v>
+      </c>
+      <c r="D37" s="15">
+        <v>0.5625</v>
+      </c>
+      <c r="E37" s="15">
+        <v>0.56944444444444442</v>
+      </c>
+      <c r="F37" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="G37" s="5">
+        <f t="shared" si="0"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="H37" s="1">
+        <f>SUM(G$3:G37)</f>
+        <v>2.1111111111111107</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C38" s="13"/>
-    </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="G38" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H38" s="1">
+        <f>SUM(G$3:G38)</f>
+        <v>2.1111111111111107</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C39" s="13"/>
-    </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="G39" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H39" s="1">
+        <f>SUM(G$3:G39)</f>
+        <v>2.1111111111111107</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C40" s="13"/>
-    </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="G40" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H40" s="1">
+        <f>SUM(G$3:G40)</f>
+        <v>2.1111111111111107</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C41" s="13"/>
-    </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="G41" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H41" s="1">
+        <f>SUM(G$3:G41)</f>
+        <v>2.1111111111111107</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C42" s="13"/>
-    </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="G42" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H42" s="1">
+        <f>SUM(G$3:G42)</f>
+        <v>2.1111111111111107</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C43" s="13"/>
-    </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="G43" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H43" s="1">
+        <f>SUM(G$3:G43)</f>
+        <v>2.1111111111111107</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C44" s="13"/>
-    </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="G44" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H44" s="1">
+        <f>SUM(G$3:G44)</f>
+        <v>2.1111111111111107</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C45" s="13"/>
-    </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="G45" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H45" s="1">
+        <f>SUM(G$3:G45)</f>
+        <v>2.1111111111111107</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C46" s="13"/>
-    </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="G46" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H46" s="1">
+        <f>SUM(G$3:G46)</f>
+        <v>2.1111111111111107</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C47" s="13"/>
+      <c r="G47" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H47" s="1">
+        <f>SUM(G$3:G47)</f>
+        <v>2.1111111111111107</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="G48" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H48" s="1">
+        <f>SUM(G$3:G48)</f>
+        <v>2.1111111111111107</v>
+      </c>
+    </row>
+    <row r="49" spans="7:8" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="G49" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H49" s="1">
+        <f>SUM(G$3:G49)</f>
+        <v>2.1111111111111107</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1723,21 +2063,21 @@
       <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26.86328125" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="25.15" x14ac:dyDescent="0.7">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1745,7 +2085,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1753,7 +2093,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1761,7 +2101,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1769,7 +2109,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1777,7 +2117,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1785,7 +2125,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1793,7 +2133,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1801,7 +2141,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1809,7 +2149,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1817,7 +2157,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1825,7 +2165,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1833,7 +2173,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1841,7 +2181,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1849,7 +2189,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1857,7 +2197,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1865,7 +2205,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1873,7 +2213,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1881,7 +2221,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1889,7 +2229,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1897,7 +2237,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1905,7 +2245,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1913,7 +2253,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1921,7 +2261,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1929,7 +2269,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1937,7 +2277,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1945,7 +2285,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1953,7 +2293,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1961,7 +2301,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1969,7 +2309,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
